--- a/Excel_luban/Datas/ATestItem.xlsx
+++ b/Excel_luban/Datas/ATestItem.xlsx
@@ -105,13 +105,13 @@
     <t>quality</t>
   </si>
   <si>
-    <t>exchange_stream</t>
-  </si>
-  <si>
-    <t>exchange_list</t>
-  </si>
-  <si>
-    <t>exchange_column</t>
+    <t>prop_stream</t>
+  </si>
+  <si>
+    <t>prop_list</t>
+  </si>
+  <si>
+    <t>prop_column</t>
   </si>
   <si>
     <t>id</t>
@@ -141,10 +141,10 @@
     <t>item.EQuality</t>
   </si>
   <si>
-    <t>item.ItemExchange</t>
-  </si>
-  <si>
-    <t>(list#sep=;),item.ItemExchange</t>
+    <t>ItemProp</t>
+  </si>
+  <si>
+    <t>(list#sep=;),ItemProp</t>
   </si>
   <si>
     <t>##group</t>
@@ -233,10 +233,10 @@
     <t>WHITE</t>
   </si>
   <si>
-    <t>10001,2</t>
-  </si>
-  <si>
-    <t>10001,2;10002,3</t>
+    <t>10001:2</t>
+  </si>
+  <si>
+    <t>10001:2;10002:3</t>
   </si>
   <si>
     <t>外套</t>
@@ -245,10 +245,10 @@
     <t>初始外套</t>
   </si>
   <si>
-    <t>10002,2</t>
-  </si>
-  <si>
-    <t>10001,2;10002,4</t>
+    <t>10002:2</t>
+  </si>
+  <si>
+    <t>10001:2;10002:4</t>
   </si>
   <si>
     <t>上衣</t>
@@ -260,10 +260,10 @@
     <t>BLUE</t>
   </si>
   <si>
-    <t>10003,3</t>
-  </si>
-  <si>
-    <t>10001,2;10002,5</t>
+    <t>10003:3</t>
+  </si>
+  <si>
+    <t>10001:2;10002:5</t>
   </si>
   <si>
     <t>裙子</t>
@@ -275,10 +275,10 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>10004,3</t>
-  </si>
-  <si>
-    <t>10001,2;10002,6</t>
+    <t>10004:3</t>
+  </si>
+  <si>
+    <t>10001:2;10002:6</t>
   </si>
   <si>
     <t>袜子</t>
@@ -290,10 +290,10 @@
     <t>No</t>
   </si>
   <si>
-    <t>10005,4</t>
-  </si>
-  <si>
-    <t>10001,2;10002,7</t>
+    <t>10005:4</t>
+  </si>
+  <si>
+    <t>10001:2;10002:7</t>
   </si>
   <si>
     <t>鞋子</t>
@@ -308,10 +308,10 @@
     <t>PURPLE</t>
   </si>
   <si>
-    <t>10006,4</t>
-  </si>
-  <si>
-    <t>10001,2;10002,8</t>
+    <t>10006:4</t>
+  </si>
+  <si>
+    <t>10001:2;10002:8</t>
   </si>
   <si>
     <t>发饰</t>
@@ -323,28 +323,28 @@
     <t>N</t>
   </si>
   <si>
-    <t>10007,5</t>
-  </si>
-  <si>
-    <t>10001,2;10002,9</t>
+    <t>10007:5</t>
+  </si>
+  <si>
+    <t>10001:2;10002:9</t>
   </si>
   <si>
     <t>中秋节发饰</t>
   </si>
   <si>
-    <t>10008,5</t>
-  </si>
-  <si>
-    <t>10001,2;10002,10</t>
+    <t>10008:5</t>
+  </si>
+  <si>
+    <t>10001:2;10002:10</t>
   </si>
   <si>
     <t>中秋节鞋子</t>
   </si>
   <si>
-    <t>10009,6</t>
-  </si>
-  <si>
-    <t>10001,2;10002,11</t>
+    <t>10009:6</t>
+  </si>
+  <si>
+    <t>10001:2;10002:11</t>
   </si>
   <si>
     <t>礼包</t>
@@ -359,10 +359,10 @@
     <t>RED</t>
   </si>
   <si>
-    <t>10000,6</t>
-  </si>
-  <si>
-    <t>10001,2;10002,12</t>
+    <t>10000:6</t>
+  </si>
+  <si>
+    <t>10001:2;10002:12</t>
   </si>
 </sst>
 </file>
@@ -1385,8 +1385,8 @@
   <sheetPr/>
   <dimension ref="A1:AI15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
